--- a/Agile_Template_v0.1.xlsx
+++ b/Agile_Template_v0.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INFOSYS INTERNSHIP 6.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INFOSYS INTERNSHIP 6.0\GDPR_Agreement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B71AE8-7DD2-4B86-B907-1F09DB631EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4947858-7987-4A3D-A329-4CCCEABD440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>Planned Sprint</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Vijayalaxmi</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1037,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1042,8 +1045,9 @@
     <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="64.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="61.2" x14ac:dyDescent="0.25">
@@ -1090,7 +1094,9 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>57</v>
       </c>
@@ -1113,7 +1119,9 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>57</v>
       </c>
@@ -1136,7 +1144,9 @@
       <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>57</v>
       </c>
@@ -1159,7 +1169,9 @@
       <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>57</v>
       </c>
@@ -1182,7 +1194,9 @@
       <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>57</v>
       </c>
@@ -1205,7 +1219,9 @@
       <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>57</v>
       </c>
@@ -1228,7 +1244,9 @@
       <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>57</v>
       </c>
@@ -1251,7 +1269,9 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>57</v>
       </c>
@@ -1274,7 +1294,9 @@
       <c r="F10" s="3">
         <v>6</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>57</v>
       </c>
@@ -1297,7 +1319,9 @@
       <c r="F11" s="3">
         <v>9</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>57</v>
       </c>
@@ -1320,7 +1344,9 @@
       <c r="F12" s="3">
         <v>6</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>57</v>
       </c>
@@ -1343,7 +1369,9 @@
       <c r="F13" s="3">
         <v>11</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>57</v>
       </c>
@@ -1360,8 +1388,12 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="I14" s="58">
         <v>45960</v>
       </c>
